--- a/BackTest/2019-10-26 BackTest REP.xlsx
+++ b/BackTest/2019-10-26 BackTest REP.xlsx
@@ -451,17 +451,13 @@
         <v>9234</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>9245</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9245</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>9246</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>9275</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9245</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>9258</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>9290</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9245</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>9271</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>9295</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9295</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>9279</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>9285</v>
-      </c>
-      <c r="K6" t="n">
-        <v>9295</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>9288</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>9290</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9295</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +661,13 @@
         <v>9289</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>9290</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9290</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +696,14 @@
         <v>9290</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>9290</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +731,14 @@
         <v>9289</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>9290</v>
-      </c>
-      <c r="K10" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -826,17 +766,13 @@
         <v>9291</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>9295</v>
-      </c>
-      <c r="K11" t="n">
-        <v>9295</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -865,22 +801,14 @@
         <v>9291</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>9290</v>
-      </c>
-      <c r="K12" t="n">
-        <v>9295</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -908,22 +836,14 @@
         <v>9291</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>9290</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9295</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -951,17 +871,13 @@
         <v>9291</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>9290</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9290</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -990,22 +906,14 @@
         <v>9291</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>9285</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1033,22 +941,14 @@
         <v>9290</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>9290</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1076,22 +976,14 @@
         <v>9290</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>9290</v>
-      </c>
-      <c r="K17" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1119,22 +1011,14 @@
         <v>9302</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>9290</v>
-      </c>
-      <c r="K18" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1162,22 +1046,14 @@
         <v>9290</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>9230</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1205,22 +1081,14 @@
         <v>9276</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1248,22 +1116,14 @@
         <v>9272</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>9270</v>
-      </c>
-      <c r="K21" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1291,22 +1151,14 @@
         <v>9277</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>9315</v>
-      </c>
-      <c r="K22" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1334,22 +1186,14 @@
         <v>9259</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>9270</v>
-      </c>
-      <c r="K23" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1377,22 +1221,14 @@
         <v>9268</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>9275</v>
-      </c>
-      <c r="K24" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1420,22 +1256,14 @@
         <v>9278</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>9275</v>
-      </c>
-      <c r="K25" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1463,22 +1291,14 @@
         <v>9276</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>9260</v>
-      </c>
-      <c r="K26" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1506,22 +1326,14 @@
         <v>9265</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>9260</v>
-      </c>
-      <c r="K27" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1549,22 +1361,14 @@
         <v>9267</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>9260</v>
-      </c>
-      <c r="K28" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1592,22 +1396,14 @@
         <v>9266</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>9270</v>
-      </c>
-      <c r="K29" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1635,22 +1431,14 @@
         <v>9276</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>9230</v>
-      </c>
-      <c r="K30" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1678,22 +1466,14 @@
         <v>9284</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>9300</v>
-      </c>
-      <c r="K31" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1721,22 +1501,14 @@
         <v>9292</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>9300</v>
-      </c>
-      <c r="K32" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1764,22 +1536,14 @@
         <v>9297</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>9295</v>
-      </c>
-      <c r="K33" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1807,22 +1571,14 @@
         <v>9302</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>9295</v>
-      </c>
-      <c r="K34" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1850,22 +1606,14 @@
         <v>9304</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>9300</v>
-      </c>
-      <c r="K35" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1893,22 +1641,14 @@
         <v>9310</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K36" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1936,22 +1676,14 @@
         <v>9318</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>9335</v>
-      </c>
-      <c r="K37" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1979,22 +1711,14 @@
         <v>9331</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>9345</v>
-      </c>
-      <c r="K38" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +1746,14 @@
         <v>9351</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>9360</v>
-      </c>
-      <c r="K39" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2065,22 +1781,14 @@
         <v>9371</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>9400</v>
-      </c>
-      <c r="K40" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2108,22 +1816,14 @@
         <v>9385</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>9400</v>
-      </c>
-      <c r="K41" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2157,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2198,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2239,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2280,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2321,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2362,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2403,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2444,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2485,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2526,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2567,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2608,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2649,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2690,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2731,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2772,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2813,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2854,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2895,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2936,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2977,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3018,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3059,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3100,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3141,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3182,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3223,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3264,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3305,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3346,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3387,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3428,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3469,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3510,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3551,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3592,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3633,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3674,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3715,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3756,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3797,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3838,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3879,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3920,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3961,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4002,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4043,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4084,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4125,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4166,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4207,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4248,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4289,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4330,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4371,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4412,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4453,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4494,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4535,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4576,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4617,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4658,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4699,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4740,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4781,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4822,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4863,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4904,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4942,19 +4234,13 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>9290</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>1.026216361679225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -4983,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -5018,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -5123,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -5158,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -5193,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -5228,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -6593,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -6628,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -7605,14 +6891,20 @@
         <v>9416</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>9435</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7647,7 +6939,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7675,14 +6971,20 @@
         <v>9460</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>9495</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7710,14 +7012,20 @@
         <v>9476</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>9530</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7752,7 +7060,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7787,7 +7099,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7822,7 +7138,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7857,7 +7177,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7892,7 +7216,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7927,7 +7255,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7962,7 +7294,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7997,7 +7333,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8032,7 +7372,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8067,7 +7411,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8102,7 +7450,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8137,7 +7489,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8172,7 +7528,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8207,7 +7567,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8242,7 +7606,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8277,7 +7645,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8312,7 +7684,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8347,7 +7723,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8382,7 +7762,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8417,7 +7801,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8452,7 +7840,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8487,7 +7879,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8522,7 +7918,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8557,7 +7957,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8592,7 +7996,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8627,7 +8035,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8662,7 +8074,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8697,7 +8113,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8732,7 +8152,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8767,7 +8191,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8802,7 +8230,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +8269,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8872,7 +8308,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8907,7 +8347,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8942,7 +8386,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8977,7 +8425,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9012,7 +8464,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9047,7 +8503,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9082,7 +8542,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9117,7 +8581,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9152,7 +8620,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9187,7 +8659,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9222,7 +8698,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9257,7 +8737,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9292,7 +8776,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9327,7 +8815,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9362,7 +8854,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9397,7 +8893,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9432,7 +8932,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9467,7 +8971,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9502,7 +9010,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9537,7 +9049,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9572,7 +9088,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9607,7 +9127,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9642,7 +9166,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9677,7 +9205,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9712,7 +9244,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9747,7 +9283,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9782,7 +9322,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9817,7 +9361,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9852,7 +9400,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9887,7 +9439,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9922,7 +9478,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9957,7 +9517,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +9556,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10027,7 +9595,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10062,7 +9634,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10097,7 +9673,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10132,7 +9712,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10167,7 +9751,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10202,7 +9790,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10237,7 +9829,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10272,7 +9868,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10307,7 +9907,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10342,7 +9946,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10377,7 +9985,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10412,7 +10024,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10447,7 +10063,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10482,7 +10102,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10517,7 +10141,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10552,7 +10180,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10587,7 +10219,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10622,7 +10258,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10657,7 +10297,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10692,7 +10336,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10727,7 +10375,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10762,7 +10414,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10797,7 +10453,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10832,7 +10492,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10867,7 +10531,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10902,7 +10570,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10937,7 +10609,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10972,7 +10648,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11007,7 +10687,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11042,7 +10726,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11077,7 +10765,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11112,7 +10804,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +10843,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11182,7 +10882,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11217,7 +10921,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11252,7 +10960,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11287,7 +10999,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11322,7 +11038,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11357,7 +11077,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11392,7 +11116,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11427,7 +11155,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11462,7 +11194,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11497,7 +11233,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11532,7 +11272,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11567,7 +11311,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11602,7 +11350,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11637,7 +11389,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11672,7 +11428,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11707,7 +11467,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11742,7 +11506,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11777,7 +11545,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11812,7 +11584,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11847,7 +11623,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11882,7 +11662,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11917,7 +11701,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11952,7 +11740,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11987,7 +11779,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12022,7 +11818,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12057,7 +11857,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12092,7 +11896,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12127,7 +11935,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12162,7 +11974,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12197,7 +12013,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12232,7 +12052,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12267,7 +12091,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +12130,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12337,7 +12169,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12372,7 +12208,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12407,7 +12247,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12442,7 +12286,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12477,7 +12325,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12512,7 +12364,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12547,7 +12403,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12582,7 +12442,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12617,7 +12481,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12652,7 +12520,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12687,7 +12559,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12722,7 +12598,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12757,7 +12637,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12792,7 +12676,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12827,7 +12715,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12862,7 +12754,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12897,7 +12793,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12932,7 +12832,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12967,7 +12871,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13002,7 +12910,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13037,7 +12949,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13072,7 +12988,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13107,7 +13027,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13142,7 +13066,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13177,7 +13105,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13212,7 +13144,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13247,7 +13183,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13282,7 +13222,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13317,7 +13261,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13352,7 +13300,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13387,7 +13339,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13422,7 +13378,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +13417,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13492,7 +13456,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13527,7 +13495,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13562,7 +13534,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13597,7 +13573,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13632,7 +13612,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13667,7 +13651,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13702,7 +13690,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13737,7 +13729,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13772,7 +13768,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13807,7 +13807,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13842,7 +13846,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13877,7 +13885,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13912,7 +13924,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest REP.xlsx
+++ b/BackTest/2019-10-26 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1156.665823133071</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>1330.937523133071</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -527,11 +521,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -564,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -638,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -671,17 +649,11 @@
         <v>1409.104023133071</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -710,17 +682,11 @@
         <v>1612.388323133071</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -749,17 +715,11 @@
         <v>1631.995323133071</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -788,17 +748,11 @@
         <v>1447.658923133072</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -827,17 +781,11 @@
         <v>1448.538923133072</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -870,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -907,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -944,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -981,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1018,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1055,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1092,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1129,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1166,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1203,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1236,15 +1144,15 @@
         <v>350.8806231330715</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9220</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1273,13 +1181,17 @@
         <v>352.5986231330716</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9365</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9220</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1310,13 +1222,17 @@
         <v>349.0476231330716</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9405</v>
+      </c>
+      <c r="J25" t="n">
+        <v>9220</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1347,13 +1263,17 @@
         <v>195.8004231330716</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9330</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9220</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1384,10 +1304,14 @@
         <v>193.4745231330716</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9275</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9220</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1421,10 +1345,14 @@
         <v>160.0909231330716</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9270</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9220</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1458,10 +1386,14 @@
         <v>135.0909231330716</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9255</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9220</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1495,10 +1427,14 @@
         <v>110.0409231330716</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9210</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9220</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1532,10 +1468,14 @@
         <v>101.8582231330716</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>9150</v>
+      </c>
+      <c r="J31" t="n">
+        <v>9220</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1569,10 +1509,14 @@
         <v>101.8582231330716</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9145</v>
+      </c>
+      <c r="J32" t="n">
+        <v>9220</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1606,10 +1550,14 @@
         <v>99.85822313307159</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9145</v>
+      </c>
+      <c r="J33" t="n">
+        <v>9220</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1643,10 +1591,14 @@
         <v>216.3434231330716</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9110</v>
+      </c>
+      <c r="J34" t="n">
+        <v>9220</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1680,10 +1632,14 @@
         <v>348.5210231330716</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9130</v>
+      </c>
+      <c r="J35" t="n">
+        <v>9220</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1717,10 +1673,14 @@
         <v>373.5210231330716</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9190</v>
+      </c>
+      <c r="J36" t="n">
+        <v>9220</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1754,10 +1714,14 @@
         <v>412.5987607883931</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9205</v>
+      </c>
+      <c r="J37" t="n">
+        <v>9220</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1791,10 +1755,14 @@
         <v>412.5987607883931</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>9255</v>
+      </c>
+      <c r="J38" t="n">
+        <v>9220</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1828,10 +1796,14 @@
         <v>913.5987607883931</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9255</v>
+      </c>
+      <c r="J39" t="n">
+        <v>9220</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1865,10 +1837,14 @@
         <v>918.884260788393</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9275</v>
+      </c>
+      <c r="J40" t="n">
+        <v>9220</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1902,10 +1878,14 @@
         <v>778.458760788393</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>9310</v>
+      </c>
+      <c r="J41" t="n">
+        <v>9220</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1941,8 +1921,12 @@
       <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>9280</v>
+      </c>
+      <c r="J42" t="n">
+        <v>9220</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1976,10 +1960,12 @@
         <v>891.3656607883929</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>9220</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2016,7 +2002,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>9220</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2053,7 +2041,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>9220</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2087,10 +2077,12 @@
         <v>29.26546078839292</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>9220</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2124,10 +2116,12 @@
         <v>-268.182539211607</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>9220</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2161,10 +2155,12 @@
         <v>-268.182539211607</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>9220</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2198,10 +2194,12 @@
         <v>-268.082539211607</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>9220</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2235,10 +2233,12 @@
         <v>-272.990539211607</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>9220</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2272,10 +2272,12 @@
         <v>-251.3048748562441</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>9220</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2312,7 +2314,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>9220</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2349,7 +2353,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>9220</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2386,7 +2392,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>9220</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2423,7 +2431,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>9220</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2460,7 +2470,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>9220</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2497,7 +2509,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>9220</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2534,7 +2548,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>9220</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2571,7 +2587,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>9220</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2608,7 +2626,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>9220</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2645,7 +2665,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>9220</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2682,7 +2704,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>9220</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2719,7 +2743,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>9220</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2756,7 +2782,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>9220</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2793,7 +2821,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>9220</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2830,7 +2860,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>9220</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2867,7 +2899,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>9220</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2904,7 +2938,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>9220</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2941,7 +2977,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>9220</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2978,7 +3016,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>9220</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3015,7 +3055,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>9220</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3052,7 +3094,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>9220</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3089,7 +3133,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>9220</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3126,7 +3172,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>9220</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3163,7 +3211,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>9220</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3200,7 +3250,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>9220</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3237,7 +3289,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>9220</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3274,7 +3328,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>9220</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3311,7 +3367,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>9220</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3348,7 +3406,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>9220</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3385,7 +3445,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>9220</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3422,7 +3484,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>9220</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3459,7 +3523,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>9220</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3496,7 +3562,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>9220</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3533,7 +3601,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>9220</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3570,7 +3640,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>9220</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3607,7 +3679,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>9220</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3644,7 +3718,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>9220</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3681,7 +3757,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>9220</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3718,7 +3796,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>9220</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3755,7 +3835,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>9220</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3792,7 +3874,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>9220</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3829,7 +3913,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>9220</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3866,7 +3952,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>9220</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3903,7 +3991,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>9220</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3940,7 +4030,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>9220</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3977,7 +4069,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>9220</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4014,7 +4108,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>9220</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4051,7 +4147,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>9220</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4088,7 +4186,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>9220</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4125,7 +4225,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>9220</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4162,7 +4264,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>9220</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4199,7 +4303,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>9220</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4236,7 +4342,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>9220</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4273,7 +4381,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>9220</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4310,7 +4420,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>9220</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4347,7 +4459,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>9220</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4384,7 +4498,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>9220</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4421,7 +4537,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>9220</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4458,7 +4576,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>9220</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4495,7 +4615,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>9220</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4532,7 +4654,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>9220</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4569,7 +4693,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>9220</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4606,7 +4732,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>9220</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4643,7 +4771,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>9220</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4680,7 +4810,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>9220</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4717,7 +4849,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>9220</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4754,7 +4888,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>9220</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4791,7 +4927,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>9220</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4828,7 +4966,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>9220</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4865,7 +5005,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>9220</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4902,7 +5044,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>9220</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4939,7 +5083,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>9220</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4976,7 +5122,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>9220</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5013,7 +5161,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>9220</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5050,7 +5200,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>9220</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5087,7 +5239,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>9220</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5124,7 +5278,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>9220</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5161,7 +5317,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>9220</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5198,7 +5356,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>9220</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5235,7 +5395,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>9220</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5272,7 +5434,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>9220</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5309,7 +5473,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>9220</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5346,7 +5512,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>9220</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5383,7 +5551,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>9220</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5420,7 +5590,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>9220</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5457,7 +5629,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>9220</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5494,7 +5668,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>9220</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5531,7 +5707,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>9220</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5568,7 +5746,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>9220</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5605,7 +5785,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>9220</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5642,7 +5824,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>9220</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5679,7 +5863,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>9220</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5716,7 +5902,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>9220</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5753,7 +5941,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>9220</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5790,7 +5980,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>9220</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5827,7 +6019,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>9220</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5864,7 +6058,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>9220</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5901,7 +6097,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>9220</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5938,7 +6136,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>9220</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5975,7 +6175,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>9220</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6012,7 +6214,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>9220</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6049,7 +6253,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>9220</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6086,7 +6292,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>9220</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6123,7 +6331,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>9220</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6160,7 +6370,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>9220</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6197,7 +6409,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>9220</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6234,7 +6448,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>9220</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6271,7 +6487,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>9220</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6308,7 +6526,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>9220</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6345,7 +6565,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>9220</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6382,7 +6604,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>9220</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6419,7 +6643,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>9220</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6456,7 +6682,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>9220</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6493,7 +6721,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>9220</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6530,7 +6760,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>9220</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6567,7 +6799,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>9220</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6604,7 +6838,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>9220</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6641,7 +6877,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>9220</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6678,7 +6916,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>9220</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6715,7 +6955,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>9220</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6752,7 +6994,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>9220</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6789,7 +7033,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>9220</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6826,7 +7072,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>9220</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6863,7 +7111,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>9220</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6897,16 +7147,20 @@
         <v>3510.121345878383</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>9220</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L176" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
       <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
@@ -6935,8 +7189,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6968,8 +7228,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7001,8 +7267,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7034,8 +7306,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7067,8 +7345,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7100,8 +7384,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7133,8 +7423,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7166,8 +7462,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7199,8 +7501,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7232,8 +7540,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7262,11 +7576,17 @@
         <v>3161.749648623279</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7298,8 +7618,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7331,8 +7657,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7364,8 +7696,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7397,8 +7735,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7430,8 +7774,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7463,8 +7813,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7496,8 +7852,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7529,8 +7891,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7562,8 +7930,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7595,8 +7969,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7628,8 +8008,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7661,8 +8047,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7694,8 +8086,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7727,8 +8125,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7760,8 +8164,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7790,15 +8200,23 @@
         <v>2775.701784798786</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>9220</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>1.055737527114968</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1.030368763557484</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7823,7 +8241,7 @@
         <v>2775.701784798786</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7856,7 +8274,7 @@
         <v>2910.701784798786</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7889,7 +8307,7 @@
         <v>3495.783576635521</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7922,7 +8340,7 @@
         <v>3673.242876635521</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7955,7 +8373,7 @@
         <v>3958.245676635521</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7988,7 +8406,7 @@
         <v>3958.245676635521</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8021,7 +8439,7 @@
         <v>3960.558076635521</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8054,7 +8472,7 @@
         <v>3929.158076635521</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8087,7 +8505,7 @@
         <v>4004.71647663552</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8120,7 +8538,7 @@
         <v>4705.59967663552</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8153,7 +8571,7 @@
         <v>5364.79867663552</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8186,7 +8604,7 @@
         <v>4832.13557663552</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8219,7 +8637,7 @@
         <v>4755.33557663552</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8252,7 +8670,7 @@
         <v>4195.16827663552</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8285,7 +8703,7 @@
         <v>3920.48777663552</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8318,7 +8736,7 @@
         <v>3916.99417663552</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8351,7 +8769,7 @@
         <v>3906.29507663552</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8384,7 +8802,7 @@
         <v>3906.29507663552</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8417,7 +8835,7 @@
         <v>3976.55107663552</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8450,7 +8868,7 @@
         <v>3671.04547663552</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8483,7 +8901,7 @@
         <v>3518.17857663552</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8516,7 +8934,7 @@
         <v>3518.17857663552</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8549,7 +8967,7 @@
         <v>3518.17857663552</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8582,7 +9000,7 @@
         <v>3316.88497663552</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8615,7 +9033,7 @@
         <v>588.1642766355203</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8648,7 +9066,7 @@
         <v>146.3444766355203</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8681,7 +9099,7 @@
         <v>432.6444766355203</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8714,7 +9132,7 @@
         <v>341.8699766355203</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8747,7 +9165,7 @@
         <v>342.0099766355203</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8780,7 +9198,7 @@
         <v>239.4000083390715</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8813,7 +9231,7 @@
         <v>-592.3730916609285</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8846,7 +9264,7 @@
         <v>-650.7930916609284</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8879,7 +9297,7 @@
         <v>-722.5498916609284</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8912,7 +9330,7 @@
         <v>-822.9187916609285</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8945,7 +9363,7 @@
         <v>-587.3614916609286</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8978,7 +9396,7 @@
         <v>-587.3614916609286</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9011,7 +9429,7 @@
         <v>-587.3614916609286</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9044,7 +9462,7 @@
         <v>-587.3614916609286</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9077,7 +9495,7 @@
         <v>-635.3364916609286</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9110,7 +9528,7 @@
         <v>-552.1893916609285</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9506,7 +9924,7 @@
         <v>256.8382056534474</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9737,7 +10155,7 @@
         <v>-141.8602943465526</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9770,7 +10188,7 @@
         <v>-141.8602943465526</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10694,10 +11112,14 @@
         <v>-1294.580494346552</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>9300</v>
+      </c>
+      <c r="J291" t="n">
+        <v>9300</v>
+      </c>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
@@ -10727,11 +11149,19 @@
         <v>-1293.580494346552</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>9210</v>
+      </c>
+      <c r="J292" t="n">
+        <v>9300</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10763,8 +11193,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>9300</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -13598,10 +14034,14 @@
         <v>-785.9308078666674</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>9465</v>
+      </c>
+      <c r="J379" t="n">
+        <v>9465</v>
+      </c>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
@@ -13634,8 +14074,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>9465</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13667,8 +14113,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>9465</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15457,6 +15909,6 @@
       <c r="M435" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest REP.xlsx
+++ b/BackTest/2019-10-26 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>1376.594623133071</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1415.051623133071</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1359.227823133072</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1409.104023133071</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1447.658923133072</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1448.538923133072</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1453.232223133072</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1144,14 +1144,10 @@
         <v>350.8806231330715</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9220</v>
-      </c>
-      <c r="J23" t="n">
-        <v>9220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1181,19 +1177,11 @@
         <v>352.5986231330716</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9365</v>
-      </c>
-      <c r="J24" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1222,19 +1210,11 @@
         <v>349.0476231330716</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9405</v>
-      </c>
-      <c r="J25" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1263,19 +1243,11 @@
         <v>195.8004231330716</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9330</v>
-      </c>
-      <c r="J26" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1304,19 +1276,11 @@
         <v>193.4745231330716</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9275</v>
-      </c>
-      <c r="J27" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1345,19 +1309,11 @@
         <v>160.0909231330716</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9270</v>
-      </c>
-      <c r="J28" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1386,19 +1342,11 @@
         <v>135.0909231330716</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9255</v>
-      </c>
-      <c r="J29" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1427,19 +1375,11 @@
         <v>110.0409231330716</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9210</v>
-      </c>
-      <c r="J30" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1468,19 +1408,11 @@
         <v>101.8582231330716</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9150</v>
-      </c>
-      <c r="J31" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1509,19 +1441,11 @@
         <v>101.8582231330716</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9145</v>
-      </c>
-      <c r="J32" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1550,19 +1474,11 @@
         <v>99.85822313307159</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9145</v>
-      </c>
-      <c r="J33" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1591,19 +1507,11 @@
         <v>216.3434231330716</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9110</v>
-      </c>
-      <c r="J34" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1632,19 +1540,11 @@
         <v>348.5210231330716</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9130</v>
-      </c>
-      <c r="J35" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1673,19 +1573,11 @@
         <v>373.5210231330716</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9190</v>
-      </c>
-      <c r="J36" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1714,19 +1606,11 @@
         <v>412.5987607883931</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>9205</v>
-      </c>
-      <c r="J37" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1755,19 +1639,11 @@
         <v>412.5987607883931</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>9255</v>
-      </c>
-      <c r="J38" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1796,19 +1672,11 @@
         <v>913.5987607883931</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>9255</v>
-      </c>
-      <c r="J39" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1837,19 +1705,11 @@
         <v>918.884260788393</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>9275</v>
-      </c>
-      <c r="J40" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1878,19 +1738,11 @@
         <v>778.458760788393</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>9310</v>
-      </c>
-      <c r="J41" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1919,19 +1771,11 @@
         <v>891.3656607883929</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>9280</v>
-      </c>
-      <c r="J42" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1960,17 +1804,11 @@
         <v>891.3656607883929</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1999,17 +1837,11 @@
         <v>707.870860788393</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2038,17 +1870,11 @@
         <v>29.16546078839292</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2077,17 +1903,11 @@
         <v>29.26546078839292</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2116,17 +1936,11 @@
         <v>-268.182539211607</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2158,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2197,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2236,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2275,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2314,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2353,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2392,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2431,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2470,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2509,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2548,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2587,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2626,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2665,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2704,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2743,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2782,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2821,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2860,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2899,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2938,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2977,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3016,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3055,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3094,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3133,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3172,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3211,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3250,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3289,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3328,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3367,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3406,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3445,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3484,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3523,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3562,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3601,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3640,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3679,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3718,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3757,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3796,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3835,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3874,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3913,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3952,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3991,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4030,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4069,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4108,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4147,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4186,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4225,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4264,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4303,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4342,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4381,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4420,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4459,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4498,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4537,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4576,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4615,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4654,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4693,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4732,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4771,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4810,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4849,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4888,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4927,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4966,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5005,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5044,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5083,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5122,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5161,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5200,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5239,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5278,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5317,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5356,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5395,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5434,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5473,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5512,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5551,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5590,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5629,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5668,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5707,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5746,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5785,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5824,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5863,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5902,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5941,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5980,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6019,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6058,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6097,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6136,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6175,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6214,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6253,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6292,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6331,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6370,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6409,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6448,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6487,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6526,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6565,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6604,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6643,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6682,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6721,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6760,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6799,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6838,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6877,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6916,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6955,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6994,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7033,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7072,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7111,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7150,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7189,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7228,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7267,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7306,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7345,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7384,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7423,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7462,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7501,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7540,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7579,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7618,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7657,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7696,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7735,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7774,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7813,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7852,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7891,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7930,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7969,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8008,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8047,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8086,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8125,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8164,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8200,23 +7084,15 @@
         <v>2775.701784798786</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>9220</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
-        <v>1.055737527114968</v>
-      </c>
-      <c r="M203" t="n">
-        <v>1.030368763557484</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8241,7 +7117,7 @@
         <v>2775.701784798786</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8274,7 +7150,7 @@
         <v>2910.701784798786</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8307,7 +7183,7 @@
         <v>3495.783576635521</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8340,7 +7216,7 @@
         <v>3673.242876635521</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8373,7 +7249,7 @@
         <v>3958.245676635521</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8406,7 +7282,7 @@
         <v>3958.245676635521</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8439,7 +7315,7 @@
         <v>3960.558076635521</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8472,7 +7348,7 @@
         <v>3929.158076635521</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8505,7 +7381,7 @@
         <v>4004.71647663552</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8538,7 +7414,7 @@
         <v>4705.59967663552</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8571,7 +7447,7 @@
         <v>5364.79867663552</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8604,7 +7480,7 @@
         <v>4832.13557663552</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8637,7 +7513,7 @@
         <v>4755.33557663552</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8670,7 +7546,7 @@
         <v>4195.16827663552</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8703,7 +7579,7 @@
         <v>3920.48777663552</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8736,7 +7612,7 @@
         <v>3916.99417663552</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8769,7 +7645,7 @@
         <v>3906.29507663552</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8802,7 +7678,7 @@
         <v>3906.29507663552</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8835,7 +7711,7 @@
         <v>3976.55107663552</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8868,7 +7744,7 @@
         <v>3671.04547663552</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8901,7 +7777,7 @@
         <v>3518.17857663552</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8934,7 +7810,7 @@
         <v>3518.17857663552</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8967,7 +7843,7 @@
         <v>3518.17857663552</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9000,7 +7876,7 @@
         <v>3316.88497663552</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9033,7 +7909,7 @@
         <v>588.1642766355203</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9066,7 +7942,7 @@
         <v>146.3444766355203</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9099,7 +7975,7 @@
         <v>432.6444766355203</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9132,7 +8008,7 @@
         <v>341.8699766355203</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9165,7 +8041,7 @@
         <v>342.0099766355203</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9198,7 +8074,7 @@
         <v>239.4000083390715</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9231,7 +8107,7 @@
         <v>-592.3730916609285</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9264,7 +8140,7 @@
         <v>-650.7930916609284</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9297,7 +8173,7 @@
         <v>-722.5498916609284</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9330,7 +8206,7 @@
         <v>-822.9187916609285</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9363,7 +8239,7 @@
         <v>-587.3614916609286</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9396,7 +8272,7 @@
         <v>-587.3614916609286</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9429,7 +8305,7 @@
         <v>-587.3614916609286</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9462,7 +8338,7 @@
         <v>-587.3614916609286</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9528,7 +8404,7 @@
         <v>-552.1893916609285</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -11112,14 +9988,10 @@
         <v>-1294.580494346552</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>9300</v>
-      </c>
-      <c r="J291" t="n">
-        <v>9300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
@@ -11149,19 +10021,11 @@
         <v>-1293.580494346552</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>9210</v>
-      </c>
-      <c r="J292" t="n">
-        <v>9300</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11193,14 +10057,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>9300</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11526,10 +10384,14 @@
         <v>-1216.112794346552</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>9350</v>
+      </c>
+      <c r="J303" t="n">
+        <v>9350</v>
+      </c>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
@@ -11562,8 +10424,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11592,11 +10460,19 @@
         <v>-1187.734894346552</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>9345</v>
+      </c>
+      <c r="J305" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11625,11 +10501,19 @@
         <v>-1173.398594346552</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>9430</v>
+      </c>
+      <c r="J306" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11661,8 +10545,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11694,8 +10584,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11727,8 +10623,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11760,8 +10662,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11793,8 +10701,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11826,8 +10740,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11859,8 +10779,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11892,8 +10818,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11925,8 +10857,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11958,8 +10896,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11991,8 +10935,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12024,8 +10974,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12057,8 +11013,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12090,8 +11052,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12123,8 +11091,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12156,8 +11130,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12189,8 +11169,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12222,8 +11208,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12255,8 +11247,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12288,8 +11286,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12321,8 +11325,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12354,8 +11364,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12387,8 +11403,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12420,8 +11442,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12453,8 +11481,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12486,8 +11520,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12519,8 +11559,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12552,8 +11598,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12585,8 +11637,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12618,8 +11676,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12651,8 +11715,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12684,8 +11754,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12717,8 +11793,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12750,8 +11832,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12783,8 +11871,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12816,8 +11910,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12849,8 +11949,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12882,8 +11988,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12915,8 +12027,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12948,8 +12066,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12981,8 +12105,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13014,8 +12144,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13047,8 +12183,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13080,8 +12222,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13113,8 +12261,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13146,8 +12300,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13179,8 +12339,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13212,8 +12378,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13245,8 +12417,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13278,8 +12456,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13311,8 +12495,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13344,8 +12534,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13377,8 +12573,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13410,8 +12612,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13443,8 +12651,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13476,8 +12690,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13509,8 +12729,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13542,8 +12768,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13575,8 +12807,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13608,8 +12846,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13641,8 +12885,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13674,8 +12924,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13707,8 +12963,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13740,8 +13002,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13773,8 +13041,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13806,8 +13080,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13839,8 +13119,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13872,8 +13158,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13905,8 +13197,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13938,8 +13236,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13971,8 +13275,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14004,8 +13314,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14034,15 +13350,17 @@
         <v>-785.9308078666674</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>9465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>9465</v>
-      </c>
-      <c r="K379" t="inlineStr"/>
+        <v>9350</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14071,15 +13389,17 @@
         <v>-785.9308078666674</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>9500</v>
+      </c>
       <c r="J380" t="n">
-        <v>9465</v>
+        <v>9350</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L380" t="n">
@@ -14114,11 +13434,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>9465</v>
+        <v>9350</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L381" t="n">
@@ -14149,11 +13469,19 @@
         <v>-785.9308078666674</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>9500</v>
+      </c>
+      <c r="J382" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14182,11 +13510,19 @@
         <v>-775.9308078666674</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>9500</v>
+      </c>
+      <c r="J383" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14215,11 +13551,19 @@
         <v>-833.5211078666673</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>9505</v>
+      </c>
+      <c r="J384" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14251,8 +13595,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14284,8 +13634,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14317,8 +13673,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14350,8 +13712,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14383,8 +13751,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14416,8 +13790,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14449,8 +13829,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14482,8 +13868,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14515,8 +13907,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14548,8 +13946,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14581,8 +13985,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14614,8 +14024,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14647,8 +14063,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14680,8 +14102,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14710,11 +14138,19 @@
         <v>-375.8955078666674</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>9435</v>
+      </c>
+      <c r="J399" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14746,8 +14182,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14779,8 +14221,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14812,8 +14260,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14842,11 +14296,19 @@
         <v>-327.5550824623899</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>9480</v>
+      </c>
+      <c r="J403" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14875,11 +14337,19 @@
         <v>-571.0377824623898</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>9435</v>
+      </c>
+      <c r="J404" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14908,11 +14378,19 @@
         <v>-723.4604824623898</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>9355</v>
+      </c>
+      <c r="J405" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14941,11 +14419,19 @@
         <v>-571.8998824623898</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>9345</v>
+      </c>
+      <c r="J406" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14974,11 +14460,19 @@
         <v>-652.8998824623898</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>9395</v>
+      </c>
+      <c r="J407" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15010,8 +14504,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15043,8 +14543,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15076,8 +14582,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15106,11 +14618,19 @@
         <v>-620.2645824623897</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>9335</v>
+      </c>
+      <c r="J411" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15142,8 +14662,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15175,8 +14701,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15208,8 +14740,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15238,11 +14776,19 @@
         <v>-581.0304824623897</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>9335</v>
+      </c>
+      <c r="J415" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15274,8 +14820,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15307,8 +14859,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15340,8 +14898,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15370,11 +14934,19 @@
         <v>-658.4707824623897</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>9225</v>
+      </c>
+      <c r="J419" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15406,8 +14978,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15439,8 +15017,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15472,8 +15056,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15502,11 +15092,19 @@
         <v>63.28111753761038</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>9365</v>
+      </c>
+      <c r="J423" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15538,8 +15136,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15571,8 +15175,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15604,8 +15214,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15637,8 +15253,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15670,8 +15292,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15703,8 +15331,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15736,8 +15370,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15769,8 +15409,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15802,8 +15448,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15835,8 +15487,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15868,8 +15526,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15901,14 +15565,20 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>9350</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
       <c r="M435" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest REP.xlsx
+++ b/BackTest/2019-10-26 BackTest REP.xlsx
@@ -451,7 +451,7 @@
         <v>1156.665823133071</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>1330.937523133071</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9480</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>1481.664623133071</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9495</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>1376.594623133071</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9500</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>1415.051623133071</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9330</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>1359.227823133072</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9375</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>1409.104023133071</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9355</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>1612.388323133071</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9360</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +761,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +794,15 @@
         <v>1447.658923133072</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +831,15 @@
         <v>1448.538923133072</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +868,15 @@
         <v>1453.232223133072</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +909,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +946,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +983,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1020,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1057,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1094,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1131,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1168,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1205,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1242,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1275,15 @@
         <v>352.5986231330716</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1312,15 @@
         <v>349.0476231330716</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1349,15 @@
         <v>195.8004231330716</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1386,15 @@
         <v>193.4745231330716</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1423,15 @@
         <v>160.0909231330716</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1460,15 @@
         <v>135.0909231330716</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1501,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1534,15 @@
         <v>101.8582231330716</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1571,17 @@
         <v>101.8582231330716</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9145</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1610,17 @@
         <v>99.85822313307159</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9145</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1649,17 @@
         <v>216.3434231330716</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9110</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1688,17 @@
         <v>348.5210231330716</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9130</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1731,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1768,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1805,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1838,15 @@
         <v>913.5987607883931</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1879,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1912,15 @@
         <v>778.458760788393</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1949,15 @@
         <v>891.3656607883929</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1986,15 @@
         <v>891.3656607883929</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2023,15 @@
         <v>707.870860788393</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2060,15 @@
         <v>29.16546078839292</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2097,15 @@
         <v>29.26546078839292</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2134,15 @@
         <v>-268.182539211607</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2175,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2212,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2249,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2286,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2323,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2360,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2397,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2434,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2471,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2508,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2545,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2582,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2619,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2656,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2693,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2730,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2767,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2804,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2841,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2878,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2915,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2952,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2989,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3026,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3063,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3100,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3137,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3174,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3211,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3248,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3285,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3322,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3359,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3396,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3433,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3470,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3503,17 @@
         <v>-274.622637085871</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>9275</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3546,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3579,17 @@
         <v>-285.622637085871</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>9260</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3618,17 @@
         <v>-266.431537085871</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>9260</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3661,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3698,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3735,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3772,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3809,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3846,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3883,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3920,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3957,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3994,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4031,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4068,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4105,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4142,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4179,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4216,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4253,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4290,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4327,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4364,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4401,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4438,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4475,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4512,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4549,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4586,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4623,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4660,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4697,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4734,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4771,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4808,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4845,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4882,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4919,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4956,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4993,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +5030,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +5067,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5104,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5141,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5178,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5215,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5252,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5289,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5326,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5363,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5400,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5437,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5474,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5511,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5548,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5585,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5622,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5659,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5696,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5733,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5770,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5807,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5844,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5881,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5918,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5955,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5992,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +6029,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +6066,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +6103,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +6140,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +6177,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +6214,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6251,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +6288,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +6325,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +6362,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +6399,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6436,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6473,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6510,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6547,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6584,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6621,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6658,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6695,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6732,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6769,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6806,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6843,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6880,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6917,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6954,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6991,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +7028,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +7065,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +7102,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +7139,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +7176,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +7213,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +7250,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +7287,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +7324,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +7361,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +7398,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +7435,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +7472,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +7509,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7546,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +7583,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7620,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7657,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7694,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7731,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7768,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7805,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7842,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7879,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7916,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7953,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7990,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +8027,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +8064,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +8101,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +8138,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +8175,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +8212,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +8249,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,14 +8282,16 @@
         <v>4705.59967663552</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
@@ -7447,7 +8317,7 @@
         <v>5364.79867663552</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +8350,7 @@
         <v>4832.13557663552</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +8383,7 @@
         <v>4755.33557663552</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +8416,7 @@
         <v>4195.16827663552</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +8449,7 @@
         <v>3920.48777663552</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +8482,7 @@
         <v>3916.99417663552</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7744,7 +8614,7 @@
         <v>3671.04547663552</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +8647,7 @@
         <v>3518.17857663552</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -10384,14 +11254,10 @@
         <v>-1216.112794346552</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>9350</v>
-      </c>
-      <c r="J303" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
@@ -10424,14 +11290,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>9350</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10460,19 +11320,11 @@
         <v>-1187.734894346552</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>9345</v>
-      </c>
-      <c r="J305" t="n">
-        <v>9350</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10501,19 +11353,11 @@
         <v>-1173.398594346552</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>9430</v>
-      </c>
-      <c r="J306" t="n">
-        <v>9350</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10545,14 +11389,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>9350</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10584,14 +11422,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>9350</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10623,14 +11455,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>9350</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10659,15 +11485,15 @@
         <v>-1539.57542518167</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>9340</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L310" t="n">
@@ -10698,12 +11524,12 @@
         <v>-1539.57542518167</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>9335</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10737,12 +11563,12 @@
         <v>-1445.51262518167</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>9335</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10776,12 +11602,12 @@
         <v>-1357.459031101332</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>9340</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10818,9 +11644,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10857,9 +11681,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10896,9 +11718,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10935,9 +11755,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10974,9 +11792,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11013,9 +11829,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11052,9 +11866,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11091,9 +11903,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11130,9 +11940,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11169,9 +11977,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11208,9 +12014,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11247,9 +12051,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11286,9 +12088,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11325,9 +12125,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11364,9 +12162,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11403,9 +12199,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11442,9 +12236,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11481,9 +12273,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11520,9 +12310,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11559,9 +12347,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11598,9 +12384,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11637,9 +12421,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11676,9 +12458,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11715,9 +12495,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11754,9 +12532,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11793,9 +12569,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11829,12 +12603,12 @@
         <v>-956.4253283674499</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>9565</v>
+      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11868,12 +12642,12 @@
         <v>-1067.16302836745</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>9565</v>
+      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11907,12 +12681,12 @@
         <v>-1067.16302836745</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>9560</v>
+      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11946,12 +12720,12 @@
         <v>-1067.16302836745</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>9560</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11985,12 +12759,12 @@
         <v>-1066.16302836745</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>9560</v>
+      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12024,12 +12798,12 @@
         <v>-1185.11332836745</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>9565</v>
+      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12063,12 +12837,12 @@
         <v>-1175.11332836745</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>9560</v>
+      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12102,12 +12876,12 @@
         <v>-1252.12422836745</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>9590</v>
+      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12141,12 +12915,12 @@
         <v>-1367.49312836745</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>9490</v>
+      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12180,12 +12954,12 @@
         <v>-1367.27872836745</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>9485</v>
+      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12219,12 +12993,12 @@
         <v>-1399.74972836745</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>9565</v>
+      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12261,9 +13035,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12297,12 +13069,12 @@
         <v>-1417.26972836745</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>9515</v>
+      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12339,9 +13111,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12378,9 +13148,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12417,9 +13185,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12456,9 +13222,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12495,9 +13259,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12534,9 +13296,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12573,9 +13333,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12612,9 +13370,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12648,12 +13404,12 @@
         <v>-1465.79762836745</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>9590</v>
+      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12687,12 +13443,12 @@
         <v>-1465.897628367449</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>9565</v>
+      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12726,12 +13482,12 @@
         <v>-1440.197628367449</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>9550</v>
+      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12765,12 +13521,12 @@
         <v>-1483.318128367449</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>9565</v>
+      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12804,12 +13560,12 @@
         <v>-1290.309628367449</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>9465</v>
+      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12843,12 +13599,12 @@
         <v>-1323.758028367449</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>9525</v>
+      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12882,12 +13638,12 @@
         <v>-1340.66802836745</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>9520</v>
+      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12921,12 +13677,12 @@
         <v>-1512.53772836745</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>9440</v>
+      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12960,12 +13716,12 @@
         <v>-1464.41342836745</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>9405</v>
+      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12999,12 +13755,12 @@
         <v>-1477.243428367449</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>9420</v>
+      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13038,12 +13794,12 @@
         <v>-1524.70042836745</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>9405</v>
+      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13077,12 +13833,12 @@
         <v>-1518.58042836745</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>9400</v>
+      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13116,12 +13872,12 @@
         <v>-1518.58042836745</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>9415</v>
+      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13155,12 +13911,12 @@
         <v>-1544.30042836745</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>9415</v>
+      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13194,12 +13950,12 @@
         <v>-1285.54002836745</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>9410</v>
+      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13233,12 +13989,12 @@
         <v>-719.5368078666673</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>9435</v>
+      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13272,12 +14028,12 @@
         <v>-865.6938078666674</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>9585</v>
+      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13311,12 +14067,12 @@
         <v>-822.2187078666674</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>9410</v>
+      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13350,12 +14106,12 @@
         <v>-785.9308078666674</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>9465</v>
+      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13389,14 +14145,10 @@
         <v>-785.9308078666674</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>9500</v>
-      </c>
-      <c r="J380" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13433,9 +14185,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13469,14 +14219,10 @@
         <v>-785.9308078666674</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>9500</v>
-      </c>
-      <c r="J382" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13510,14 +14256,10 @@
         <v>-775.9308078666674</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>9500</v>
-      </c>
-      <c r="J383" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13551,14 +14293,10 @@
         <v>-833.5211078666673</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>9505</v>
-      </c>
-      <c r="J384" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13595,9 +14333,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13634,9 +14370,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13673,9 +14407,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13712,9 +14444,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13751,9 +14481,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13787,12 +14515,12 @@
         <v>-849.3865078666673</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>9485</v>
+      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13829,9 +14557,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13868,9 +14594,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13907,9 +14631,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13946,9 +14668,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13982,12 +14702,12 @@
         <v>-520.3903078666674</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>9420</v>
+      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14024,9 +14744,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14063,9 +14781,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14102,9 +14818,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14138,14 +14852,10 @@
         <v>-375.8955078666674</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>9435</v>
-      </c>
-      <c r="J399" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14182,9 +14892,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14221,9 +14929,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14260,9 +14966,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14296,14 +15000,10 @@
         <v>-327.5550824623899</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>9480</v>
-      </c>
-      <c r="J403" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14337,14 +15037,10 @@
         <v>-571.0377824623898</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>9435</v>
-      </c>
-      <c r="J404" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14378,14 +15074,10 @@
         <v>-723.4604824623898</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>9355</v>
-      </c>
-      <c r="J405" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14419,14 +15111,10 @@
         <v>-571.8998824623898</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>9345</v>
-      </c>
-      <c r="J406" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14460,14 +15148,10 @@
         <v>-652.8998824623898</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>9395</v>
-      </c>
-      <c r="J407" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14504,9 +15188,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14543,9 +15225,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14582,9 +15262,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14618,14 +15296,10 @@
         <v>-620.2645824623897</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>9335</v>
-      </c>
-      <c r="J411" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14662,9 +15336,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14701,9 +15373,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14740,9 +15410,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14776,14 +15444,10 @@
         <v>-581.0304824623897</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>9335</v>
-      </c>
-      <c r="J415" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14820,9 +15484,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14859,9 +15521,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14898,9 +15558,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14934,14 +15592,10 @@
         <v>-658.4707824623897</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>9225</v>
-      </c>
-      <c r="J419" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14978,9 +15632,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15017,9 +15669,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15053,12 +15703,12 @@
         <v>-767.4788824623896</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>9350</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>9235</v>
+      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15092,14 +15742,10 @@
         <v>63.28111753761038</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>9365</v>
-      </c>
-      <c r="J423" t="n">
-        <v>9350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15136,9 +15782,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15175,9 +15819,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15214,9 +15856,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15253,9 +15893,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15292,9 +15930,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15331,9 +15967,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15370,9 +16004,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15409,9 +16041,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15448,9 +16078,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15487,9 +16115,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15526,9 +16152,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15565,9 +16189,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
